--- a/data/trans_bre/P27-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P27-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>18,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,8</t>
+          <t>12,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>13,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>14,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,1%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>49,27%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51,65%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 21,93</t>
+          <t>1,77; 24,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 31,04</t>
+          <t>7,04; 29,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 26,44</t>
+          <t>-0,08; 24,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 26,35</t>
+          <t>4,66; 30,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 80,48</t>
+          <t>-0,49; 26,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,71; 107,78</t>
+          <t>0,31; 26,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 85,58</t>
+          <t>4,44; 91,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 63,11</t>
+          <t>16,67; 98,99</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 75,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10,78; 115,7</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 60,4</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 110,62</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,57</t>
+          <t>18,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>44,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 16,4</t>
+          <t>-6,45; 16,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 21,21</t>
+          <t>0,05; 20,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 29,47</t>
+          <t>6,44; 28,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 19,08</t>
+          <t>-17,78; 11,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 50,18</t>
+          <t>-5,18; 19,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 67,18</t>
+          <t>-9,93; 14,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,85; 90,54</t>
+          <t>-13,94; 51,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 49,83</t>
+          <t>0,06; 63,91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 84,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,45; 28,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; 50,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 39,22</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>11,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>27,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 11,74</t>
+          <t>-6,68; 11,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 20,95</t>
+          <t>3,25; 19,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 17,74</t>
+          <t>0,89; 18,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 16,63</t>
+          <t>2,94; 21,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 25,91</t>
+          <t>-2,7; 15,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 55,37</t>
+          <t>1,43; 21,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 40,1</t>
+          <t>-11,95; 25,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 32,57</t>
+          <t>6,78; 52,22</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 41,44</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 60,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 30,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 56,01</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,24</t>
+          <t>19,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,94</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,86%</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,82; 28,06</t>
+          <t>9,51; 27,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 21,99</t>
+          <t>8,16; 24,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 16,72</t>
+          <t>0,96; 16,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 22,18</t>
+          <t>-0,28; 16,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,26; 74,04</t>
+          <t>2,38; 21,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,06; 53,54</t>
+          <t>1,47; 20,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 34,13</t>
+          <t>20,46; 71,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 45,59</t>
+          <t>16,3; 61,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 33,09</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 39,22</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 43,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 50,14</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>4,06</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>-7,14</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>11,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,68%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>5,97%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-11,88%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 14,73</t>
+          <t>-4,03; 14,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 15,63</t>
+          <t>-2,57; 15,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 10,14</t>
+          <t>-8,14; 9,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 13,97</t>
+          <t>-14,65; 7,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 28,98</t>
+          <t>-5,12; 13,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 28,68</t>
+          <t>-16,53; 2,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 16,99</t>
+          <t>-6,45; 28,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 22,54</t>
+          <t>-3,98; 28,41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 15,93</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-25,21; 16,12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 21,64</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-25,91; 5,15</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>11,12</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-3,61%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 21,28</t>
+          <t>1,42; 21,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 11,04</t>
+          <t>-8,07; 12,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 18,34</t>
+          <t>-0,51; 18,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 8,09</t>
+          <t>-15,36; 11,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 40,16</t>
+          <t>-15,63; 7,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 21,12</t>
+          <t>-11,45; 9,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 31,13</t>
+          <t>2,1; 40,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 12,41</t>
+          <t>-12,35; 23,61</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 31,02</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-26,83; 24,57</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,47; 10,86</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-16,63; 17,07</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,39</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>13,67%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,66; 13,92</t>
+          <t>5,74; 14,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,41; 15,13</t>
+          <t>7,58; 15,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,85; 14,96</t>
+          <t>5,96; 14,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,56</t>
+          <t>0,12; 9,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,31; 31,58</t>
+          <t>2,51; 11,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,29; 34,23</t>
+          <t>1,88; 11,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,72; 30,59</t>
+          <t>11,31; 32,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 20,73</t>
+          <t>15,34; 36,05</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,91; 28,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 22,52</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 21,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 24,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
